--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Иванов Юрий Петрович</t>
+          <t>ИВАНОВ ЮРИЙ ПЕТРОВИЧ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Петров Александр Олегович</t>
+          <t>ПЕТРОВ АЛЕКСАНДР ОЛЕГОВИЧ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
